--- a/source_code/data/results/[0_basic]_#_fix_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1583.972498741311</v>
+        <v>1597.712711525563</v>
       </c>
       <c r="B2" t="n">
-        <v>3225.615974436596</v>
+        <v>2984.914824628064</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12851.70388447179</v>
+        <v>13056.133776026</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6433.938520377555</v>
+        <v>6457.734446888837</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5828.612573668089</v>
+        <v>5608.841705680441</v>
       </c>
       <c r="B2" t="n">
-        <v>9934.76568481649</v>
+        <v>9517.172998209604</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46021.78981291864</v>
+        <v>47139.53290541803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20701.33211412051</v>
+        <v>20642.00814676657</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>30351.47612727695</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>30351.47612727695</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>30351.47612727695</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>30351.47612727695</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_fix_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1583.972498741311</v>
+        <v>1355.68743697279</v>
       </c>
       <c r="B2" t="n">
-        <v>3225.615974436596</v>
+        <v>1280.705121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12851.70388447179</v>
+        <v>14026.90210065423</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6433.938520377555</v>
+        <v>6067.047975687527</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5828.612573668089</v>
+        <v>7155.549343933202</v>
       </c>
       <c r="B2" t="n">
-        <v>9934.76568481649</v>
+        <v>1280.705121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46021.78981291864</v>
+        <v>47026.40076441498</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20701.33211412051</v>
+        <v>18816.96841445802</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11520.85895425381</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>1280.705121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>94965.97992185273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>29899.8868371386</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11520.85895425381</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>1280.705121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>94965.97992185273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>29899.8868371386</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11520.85895425381</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>1280.705121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>94965.97992185273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>29899.8868371386</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11378.09184281549</v>
+        <v>11520.85895425381</v>
       </c>
       <c r="B2" t="n">
-        <v>30527.46971143648</v>
+        <v>1280.705121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112059.324726391</v>
+        <v>94965.97992185273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266197</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29959.52538516231</v>
+        <v>29899.8868371386</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_fix_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1355.68743697279</v>
+        <v>1354.266239954146</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14026.90210065423</v>
+        <v>14593.81080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6067.047975687527</v>
+        <v>6102.842054786237</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7155.549343933202</v>
+        <v>7006.612294296272</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47026.40076441498</v>
+        <v>48062.57673421615</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18816.96841445802</v>
+        <v>18820.95839330966</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>30272.09775488335</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>30272.09775488335</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>30272.09775488335</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>30272.09775488335</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_fix_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_fix_cost.xlsx
@@ -495,7 +495,7 @@
         <v>1355.68743697279</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>1280.705121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14026.90210065423</v>
+        <v>14026.90210065367</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661833</v>
+        <v>8095.925712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6067.047975687527</v>
+        <v>6067.047975687536</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7155.549343933202</v>
+        <v>7155.549343933199</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>1280.705121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47026.40076441498</v>
+        <v>47026.40076441444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661833</v>
+        <v>8095.925712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18816.96841445802</v>
+        <v>18816.968414458</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>11520.85895425426</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>1280.705121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>94965.9799218525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661833</v>
+        <v>8095.925712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>29899.88683713793</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>11520.85895425426</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>1280.705121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>94965.9799218525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661833</v>
+        <v>8095.925712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>29899.88683713793</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>11520.85895425426</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>1280.705121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>94965.9799218525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661833</v>
+        <v>8095.925712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>29899.88683713793</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425381</v>
+        <v>11520.85895425426</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601179</v>
+        <v>1280.705121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.97992185273</v>
+        <v>94965.9799218525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661833</v>
+        <v>8095.925712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.8868371386</v>
+        <v>29899.88683713793</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_fix_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1355.68743697279</v>
+        <v>1354.266239954147</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14026.90210065367</v>
+        <v>14593.81080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6067.047975687536</v>
+        <v>6102.842054786237</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7155.549343933199</v>
+        <v>7006.612294296281</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47026.40076441444</v>
+        <v>48062.57673421613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18816.968414458</v>
+        <v>18820.95839330967</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_fix_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1355.68743697279</v>
+        <v>1354.266239954147</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14026.90210065367</v>
+        <v>14593.81080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6067.047975687536</v>
+        <v>6102.842054786237</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7155.549343933199</v>
+        <v>7006.612294296281</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47026.40076441444</v>
+        <v>48062.57673421613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18816.968414458</v>
+        <v>18820.95839330967</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>30272.09775488329</v>
       </c>
     </row>
   </sheetData>
